--- a/src/main/resources/studenti.xlsx
+++ b/src/main/resources/studenti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alin Chiperi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\Anul I\Semestrul II\TWAAOS\certificates_generator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D85068-AB20-4AD9-AC0D-196BAD15D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A359AE72-92E5-4158-9230-69D11A15B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
@@ -66,19 +66,19 @@
     <t>I</t>
   </si>
   <si>
-    <t>Calculatoare și tehnologia informației</t>
-  </si>
-  <si>
     <t>zi</t>
   </si>
   <si>
-    <t>Buget</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>fara taxa</t>
+  </si>
+  <si>
+    <t>ciprian.orobet@student.usv.ro</t>
   </si>
 </sst>
 </file>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3972A150-73F8-4594-BBA2-1EEAE1F40F50}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,24 +512,54 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{DFCA0065-815F-4499-896C-DDC5F065878A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C32EAF2B-A046-4D6C-8BE2-599A9A64C3E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/studenti.xlsx
+++ b/src/main/resources/studenti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\Anul I\Semestrul II\TWAAOS\certificates_generator\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alin Chiperi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A359AE72-92E5-4158-9230-69D11A15B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81251A3A-DFC4-4907-88A6-F9D46ACD9DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ciprian.orobet@student.usv.ro</t>
+  </si>
+  <si>
+    <t>alin.chiperi@student.usv.ro</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3972A150-73F8-4594-BBA2-1EEAE1F40F50}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +559,40 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{DFCA0065-815F-4499-896C-DDC5F065878A}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{C32EAF2B-A046-4D6C-8BE2-599A9A64C3E9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{3C402274-6B72-4CC2-AEC4-BC321A6C8B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/studenti.xlsx
+++ b/src/main/resources/studenti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\Anul I\Semestrul II\TWAAOS\certificates_generator\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alin Chiperi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A359AE72-92E5-4158-9230-69D11A15B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDA858-5FCF-4E1A-9FD3-F15D78846579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
+    <workbookView xWindow="30240" yWindow="1440" windowWidth="21600" windowHeight="11325" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ciprian.orobet@student.usv.ro</t>
+  </si>
+  <si>
+    <t>ioan.chiperi@gmail</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3972A150-73F8-4594-BBA2-1EEAE1F40F50}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +559,40 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{DFCA0065-815F-4499-896C-DDC5F065878A}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{C32EAF2B-A046-4D6C-8BE2-599A9A64C3E9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{3C402274-6B72-4CC2-AEC4-BC321A6C8B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/studenti.xlsx
+++ b/src/main/resources/studenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alin Chiperi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\Anul I\Semestrul II\TWAAOS\certificates_generator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDA858-5FCF-4E1A-9FD3-F15D78846579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE588F-6FF2-4086-ABF7-7C66A0567D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1440" windowWidth="21600" windowHeight="11325" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{A5A58EC9-CD04-4618-8639-FC3467B073D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Finantare</t>
   </si>
   <si>
-    <t>Initiala tata</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>zi</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -81,7 +75,13 @@
     <t>ciprian.orobet@student.usv.ro</t>
   </si>
   <si>
-    <t>ioan.chiperi@gmail</t>
+    <t>Nume Complet</t>
+  </si>
+  <si>
+    <t>OROBEȚ C. ALIN-CIPRIAN</t>
+  </si>
+  <si>
+    <t>Chiperi V. Alin-Ioan</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3972A150-73F8-4594-BBA2-1EEAE1F40F50}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,104 +495,74 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{DFCA0065-815F-4499-896C-DDC5F065878A}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{C32EAF2B-A046-4D6C-8BE2-599A9A64C3E9}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{3C402274-6B72-4CC2-AEC4-BC321A6C8B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
